--- a/target/classes/es枚举用表.xlsx
+++ b/target/classes/es枚举用表.xlsx
@@ -2593,10 +2593,10 @@
   <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D214" sqref="D214"/>
+      <selection pane="bottomRight" activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5046,7 +5046,7 @@
         <v>DWDSOURCE("dwdSource","dwd_source","string","数据来源",false),</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>147</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>ACCOUNTID("accountId","account_id","string","邮箱帐号表id",false),</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>147</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>MAILFROM("mailFrom","mail_from","string","发件人",true),</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>147</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>MAILTO("mailTo","mail_to","string","收件人",true),</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>147</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>CC("cc","cc","string","抄送",true),</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>147</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>BCC("bcc","bcc","string","暗送",true),</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>147</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>SUBJECT("subject","subject","string","邮件主题",true),</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>147</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>CONTENT("content","content","string","邮件内容",true),</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>147</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>BODYPATH("bodypath","bodypath","string","存放路径",true),</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>147</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>SENDDATE("senddate","senddate","date","时间",true),</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>REMARK("remark","remark","string","备注",true),</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>147</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>CLIENTDATE("clientDate","client_date","date","采集日期",true),</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>147</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>SERVERDATE("serverDate","server_date","date","上传日期",true),</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>147</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>SYNCDATE("syncDate","sync_date","date","同步日期",false),</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>147</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>APPTYPE("appType","app_type","int","应用类型",true),</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>147</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>DATAFLAG("dataFlag","data_flag","int","数据来源",false),</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>147</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>VALIDFLAG("validFlag","valid_flag","int","数据是否有效",false),</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>147</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>MAILSAVEFOLDERNAME("mailSaveFolderName","mail_save_folder_name","string","所在的邮箱位置名称",true),</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>147</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>DWDSERVERDATE("dwdServerDate","dwd_server_date","date","落dwd分区的时间",false),</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>147</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>DWDSYNCDATE("dwdSyncDate","dwd_sync_date","date","dwd层的变更时间",false),</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>147</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>DWDOPTYPE("dwdOpType","dwd_op_type","string","dwd操作类型",false),</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>147</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>DWDVMD5("dwdVmd5","dwd_vmd5","string","dwd的md5计算",false),</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>147</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>ID("id","id","string","主键",false),</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>147</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>ISREAD("isread","isread","smallint","是否已读",true),</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>147</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>MAILSAVEFOLDERDM("mailSaveFolderDm","mail_save_folder_dm","string","邮箱位置代码",false),</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>147</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>DELFLAG("delFlag","del_flag","smallint","状态",true),</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>147</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>DWDBATCH("dwdBatch","dwd_batch","string","批次编号",false),</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>MSGID("msgid","msgid","bigint","消息id",false),</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>189</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>SENDERNAME("sendername","sendername","string","发送方名称",true),</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>193</v>
       </c>
       <c r="E207" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F207" t="s">
         <v>208</v>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="H207" t="str">
         <f t="shared" si="7"/>
-        <v>TYPEDM("typeDm","type_dm","string","消息类型代码",false),</v>
+        <v>TYPEDM("typeDm","type_dm","int","消息类型代码",false),</v>
       </c>
     </row>
     <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -8492,9 +8492,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H210">
-    <filterColumn colId="0">
+    <filterColumn colId="1">
       <filters>
-        <filter val="t_email"/>
+        <filter val="typeDm"/>
       </filters>
     </filterColumn>
   </autoFilter>
